--- a/TestData/section-price.xlsx
+++ b/TestData/section-price.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
   <si>
     <t>section</t>
   </si>
@@ -516,6 +516,46 @@
         <v>3</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
